--- a/sheets/qtr_5/ChannelDemand-Q4.xlsx
+++ b/sheets/qtr_5/ChannelDemand-Q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyote\Documents\Cresicor\Project\capstone\python-analysis\sheets\qtr_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1541BC28-BAD1-4188-B648-8C57B623BCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B346CD-380E-4A37-8D29-6EAEB2DBD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="TitleRegion1.A2.F8.1">'Demand Distribution by Channel'!A2</definedName>
   </definedNames>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Demand Distribution by Channel</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>End of Worksheet</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,6 +100,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -127,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -150,6 +159,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +748,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
